--- a/input/estimation_results_dest_inter.xlsx
+++ b/input/estimation_results_dest_inter.xlsx
@@ -478,16 +478,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.06190949383120383</v>
+        <v>-0.0656181723694778</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003260332114053294</v>
+        <v>0.00350376126725795</v>
       </c>
       <c r="E2" t="n">
-        <v>-18.98870779585612</v>
+        <v>-18.72792332704525</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3871331505742507</v>
+        <v>-0.3175087654376434</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02192140767229703</v>
+        <v>0.02267235055023482</v>
       </c>
       <c r="E3" t="n">
-        <v>-17.66004977241888</v>
+        <v>-14.00422795749138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7581847180853246</v>
+        <v>0.3480128829922304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1019463130681189</v>
+        <v>0.2273041966360767</v>
       </c>
       <c r="E4" t="n">
-        <v>7.437097971151908</v>
+        <v>1.531044688758709</v>
       </c>
       <c r="F4" t="n">
-        <v>1.030286966852145e-13</v>
+        <v>0.1257583483344495</v>
       </c>
     </row>
     <row r="5">
@@ -550,13 +550,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09804889613645203</v>
+        <v>0.2088230223022156</v>
       </c>
       <c r="E5" t="n">
-        <v>10.1989929454007</v>
+        <v>4.788744023409292</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.678283947592618e-06</v>
       </c>
     </row>
     <row r="6">
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5753.364060568199</v>
+        <v>-6511.187885598389</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2434.212967998051</v>
+        <v>-3141.54055747438</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6638.302185140296</v>
+        <v>6739.294656248017</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5769061470172896</v>
+        <v>0.5175165249918652</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5762109015994975</v>
+        <v>0.5169021977645942</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4876.425935996102</v>
+        <v>6291.081114948761</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4892.5100293935</v>
+        <v>6307.500287878421</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.07235014139798</v>
+        <v>81.39290913453294</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.08068178646353136</v>
+        <v>-0.03190395006970476</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002101942899911806</v>
+        <v>0.001626547850677865</v>
       </c>
       <c r="D2" t="n">
-        <v>-38.38438544972684</v>
+        <v>-19.61451675486139</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5376300341771789</v>
+        <v>-0.5107922058524693</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0256785050357588</v>
+        <v>0.0195385792228966</v>
       </c>
       <c r="D3" t="n">
-        <v>-20.93696784250088</v>
+        <v>-26.14275071003572</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.77160266631637</v>
+        <v>1.316192148731411</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3797171640470876</v>
+        <v>0.3289821241267046</v>
       </c>
       <c r="D4" t="n">
-        <v>2.032045794539553</v>
+        <v>4.000801418087053</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04214902011790156</v>
+        <v>6.312831921606588e-05</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +878,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3419698605887037</v>
+        <v>1.339667615102549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.365540367662117</v>
+        <v>0.3208987948159699</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9355187301906956</v>
+        <v>4.174735576276706</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3495210352777873</v>
+        <v>2.98332366179821e-05</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +897,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05517776708910452</v>
+        <v>0.2016982707729148</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03219276801035472</v>
+        <v>0.02981880839560894</v>
       </c>
       <c r="D6" t="n">
-        <v>1.713980204229619</v>
+        <v>6.76412913946677</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08653236154639932</v>
+        <v>1.341127209286697e-11</v>
       </c>
     </row>
     <row r="7">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7910307482716492</v>
+        <v>0.7701846207043722</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02261881863334789</v>
+        <v>0.02022756161507575</v>
       </c>
       <c r="D7" t="n">
-        <v>34.97223975727002</v>
+        <v>38.07599924107253</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-21730.40302144346</v>
+        <v>-21005.64432426355</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-8417.490252507099</v>
+        <v>-13148.06843296155</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26625.82553787272</v>
+        <v>15715.151782604</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6126399384217237</v>
+        <v>0.3740697390665491</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6123638275739829</v>
+        <v>0.3737841015537273</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16846.9805050142</v>
+        <v>26308.13686592309</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16883.0187104201</v>
+        <v>26344.17507132899</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.008726722619180142</v>
+        <v>0.069168422166049</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.974479681261625</v>
+        <v>3.560498472435033</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.627606562156384</v>
+        <v>2.449357184314378</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1213,19 +1213,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0385581921986324</v>
+        <v>-0.03218711049312539</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007044922676947621</v>
+        <v>0.005757873561864899</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.473188843477647</v>
+        <v>-5.590103733139359</v>
       </c>
       <c r="F4" t="n">
-        <v>4.42008649681469e-08</v>
+        <v>2.26934002700574e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1235,19 +1235,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1146322791291099</v>
+        <v>-0.04378095799185945</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01560148389390112</v>
+        <v>0.009659103514855759</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.347524114287721</v>
+        <v>-4.53261091202968</v>
       </c>
       <c r="F5" t="n">
-        <v>2.018385458768535e-13</v>
+        <v>5.825906827183758e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1372143896669997</v>
+        <v>0.1840471370125641</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2353293456823436</v>
+        <v>0.1886517467712728</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5830738587622506</v>
+        <v>0.9755920110069722</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5598435807208906</v>
+        <v>0.3292666850833981</v>
       </c>
     </row>
     <row r="7">
@@ -1279,19 +1279,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.7746458846021014</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1862666716328528</v>
+        <v>0.2327450314650577</v>
       </c>
       <c r="E7" t="n">
-        <v>5.368646957793308</v>
+        <v>3.32830256236168</v>
       </c>
       <c r="F7" t="n">
-        <v>7.932953560718659e-08</v>
+        <v>0.0008737691452920249</v>
       </c>
     </row>
     <row r="8">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-497.7562463833394</v>
+        <v>-591.9243327115266</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-327.4103294448904</v>
+        <v>-507.5208859948845</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>340.6918338768979</v>
+        <v>168.8068934332844</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3422275826293893</v>
+        <v>0.1425916152660953</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3301734898006292</v>
+        <v>0.1324551845292226</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>666.8206588897808</v>
+        <v>1027.041771989769</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>679.4859020748207</v>
+        <v>1040.866162548994</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.280780190970628</v>
+        <v>1.796716516150584</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7414791143612175</v>
+        <v>0.421501367851483</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1583,19 +1583,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.814011134507014</v>
+        <v>1.236837852200811</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6527575293508375</v>
+        <v>0.3894759180521785</v>
       </c>
       <c r="E3" t="n">
-        <v>2.778996875472329</v>
+        <v>3.175646541604943</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005452704958684329</v>
+        <v>0.001495029896796174</v>
       </c>
     </row>
     <row r="4">
@@ -1605,16 +1605,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1083163386200948</v>
+        <v>-0.04458116264573329</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003818668700644307</v>
+        <v>0.00231827249055056</v>
       </c>
       <c r="E4" t="n">
-        <v>-28.36494786830265</v>
+        <v>-19.23033760157583</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1627,16 +1627,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3407130944349954</v>
+        <v>-0.2413372848124032</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007957560331169138</v>
+        <v>0.01117792611667252</v>
       </c>
       <c r="E5" t="n">
-        <v>-42.8162753727985</v>
+        <v>-21.59052424335091</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1649,19 +1649,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1121276431522856</v>
+        <v>0.02911918141922575</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03426298741393596</v>
+        <v>0.02591821295979685</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.272558863523949</v>
+        <v>1.123502668351175</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001065786773610577</v>
+        <v>0.2612240679575182</v>
       </c>
     </row>
     <row r="7">
@@ -1671,16 +1671,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.7383158413321552</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02753613947594699</v>
+        <v>0.02212961772631528</v>
       </c>
       <c r="E7" t="n">
-        <v>36.31591134528887</v>
+        <v>33.36324424864294</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-20629.65591566667</v>
+        <v>-21375.37341211332</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7275.860891573273</v>
+        <v>-13477.71008953989</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26707.59004818679</v>
+        <v>15795.32664514687</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6473106036612173</v>
+        <v>0.3694748704646191</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6470197602257026</v>
+        <v>0.3691941736138871</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14563.72178314655</v>
+        <v>26967.42017907978</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14599.75998855245</v>
+        <v>27003.45838448568</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.13678010672803</v>
+        <v>1.48601638122353</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1911,7 +1911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1927,15 +1927,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Active bound</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Rob. Std err</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Rob. t-test</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Rob. p-value</t>
         </is>
@@ -1948,15 +1953,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.08241594051325013</v>
+        <v>-0.04698932540467751</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003104085314761376</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-26.55079746723579</v>
+        <v>0.002278010861677453</v>
       </c>
       <c r="E2" t="n">
+        <v>-20.62734914708707</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1967,15 +1975,18 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1771914136996235</v>
+        <v>-0.1033675928630548</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005675366772725498</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-31.22113879074115</v>
+        <v>0.007154111309618218</v>
       </c>
       <c r="E3" t="n">
+        <v>-14.4486978730795</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1986,16 +1997,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5643975362358167</v>
+        <v>-0.1111793575700077</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05428433965343293</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>10.39705999629166</v>
+        <v>0.1119578072938749</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0.9930469366747792</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3206870814057468</v>
       </c>
     </row>
     <row r="5">
@@ -2005,15 +2019,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.880450962728901</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04925398783481609</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>17.87572948776623</v>
+        <v>0.1052599240027014</v>
       </c>
       <c r="E5" t="n">
+        <v>9.500291867722952</v>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2029,58 +2046,58 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Sample size</t>
+          <t>Number of free parameters</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Excluded observations</t>
+          <t>Sample size</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Init log likelihood</t>
+          <t>Excluded observations</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-19908.52320158828</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Final log likelihood</t>
+          <t>Init log likelihood</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-8581.27287415311</v>
+        <v>-20035.94243880998</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2089,15 +2106,16 @@
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Likelihood ratio test for the init. model</t>
+          <t>Final log likelihood</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22654.50065487034</v>
+        <v>-12990.50965213858</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2106,32 +2124,34 @@
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Rho-square for the init. model</t>
+          <t>Likelihood ratio test for the init. model</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5689648706103672</v>
+        <v>14090.86557334281</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>.3g</t>
+          <t>.7g</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Rho-square-bar for the init. model</t>
+          <t>Rho-square for the init. model</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5687639516391558</v>
+        <v>0.3516396999137047</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2140,32 +2160,34 @@
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Akaike Information Criterion</t>
+          <t>Rho-square-bar for the init. model</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17170.54574830622</v>
+        <v>0.3514400586933221</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>.7g</t>
+          <t>.3g</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Bayesian Information Criterion</t>
+          <t>Akaike Information Criterion</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17194.57121857682</v>
+        <v>25989.01930427716</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2174,36 +2196,57 @@
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Final gradient norm</t>
+          <t>Bayesian Information Criterion</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.794923311112695e-05</v>
+        <v>26013.04477454776</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>.4E</t>
+          <t>.7g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Nbr of threads</t>
+          <t>Final gradient norm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>202.3981441189071</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>.4E</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Nbr of threads</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>32</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2216,7 +2259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2232,15 +2275,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Active bound</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Rob. Std err</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Rob. t-test</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Rob. p-value</t>
         </is>
@@ -2253,16 +2301,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0254315047726488</v>
+        <v>-0.03216479217574236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003680093034198624</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.910560286470245</v>
+        <v>0.003938918165872461</v>
       </c>
       <c r="E2" t="n">
-        <v>4.827471755675106e-12</v>
+        <v>-8.165895004984938</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.220446049250313e-16</v>
       </c>
     </row>
     <row r="3">
@@ -2272,16 +2323,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3885856516778834</v>
+        <v>-0.4404307217351436</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0758217624905794</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.124988379506002</v>
+        <v>0.08578517167855823</v>
       </c>
       <c r="E3" t="n">
-        <v>2.975560977613867e-07</v>
+        <v>-5.134112494236904</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.83478509555124e-07</v>
       </c>
     </row>
     <row r="4">
@@ -2291,16 +2345,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.164114386785765</v>
+        <v>0.3844180284078708</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2394399835356094</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.861821194590244</v>
+        <v>0.431580545794383</v>
       </c>
       <c r="E4" t="n">
-        <v>1.163106633228495e-06</v>
+        <v>0.8907214010314038</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3730786506837549</v>
       </c>
     </row>
     <row r="5">
@@ -2310,16 +2367,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4144113073069664</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2367421743189467</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.75047521000064</v>
+        <v>0.3864974855180329</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08003634812798777</v>
+        <v>2.587338954248753</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.009672039635891139</v>
       </c>
     </row>
     <row r="6">
@@ -2334,58 +2394,58 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Sample size</t>
+          <t>Number of free parameters</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Excluded observations</t>
+          <t>Sample size</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Init log likelihood</t>
+          <t>Excluded observations</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-956.0933793787382</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Final log likelihood</t>
+          <t>Init log likelihood</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-486.6723548600821</v>
+        <v>-1111.713961999799</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2394,15 +2454,16 @@
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Likelihood ratio test for the init. model</t>
+          <t>Final log likelihood</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>938.8420490373121</v>
+        <v>-585.7313039101724</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2411,32 +2472,34 @@
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Rho-square for the init. model</t>
+          <t>Likelihood ratio test for the init. model</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4909782189096238</v>
+        <v>1051.965316179253</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>.3g</t>
+          <t>.7g</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Rho-square-bar for the init. model</t>
+          <t>Rho-square for the init. model</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4867945271424041</v>
+        <v>0.4731276893774603</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2445,32 +2508,34 @@
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Akaike Information Criterion</t>
+          <t>Rho-square-bar for the init. model</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>981.3447097201642</v>
+        <v>0.4695296415551548</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>.7g</t>
+          <t>.3g</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Bayesian Information Criterion</t>
+          <t>Akaike Information Criterion</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>991.2992551990928</v>
+        <v>1179.462607820345</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2479,36 +2544,57 @@
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Final gradient norm</t>
+          <t>Bayesian Information Criterion</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0003162982376486949</v>
+        <v>1190.001523773263</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>.4E</t>
+          <t>.7g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Nbr of threads</t>
+          <t>Final gradient norm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>8.35664180301865</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>.4E</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Nbr of threads</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>32</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2521,7 +2607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2537,15 +2623,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Active bound</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Rob. Std err</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Rob. t-test</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Rob. p-value</t>
         </is>
@@ -2558,15 +2649,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.05165447280572221</v>
+        <v>-0.02094008039733491</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001987457279611182</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-25.99023049986145</v>
+        <v>0.0009115281015943652</v>
       </c>
       <c r="E2" t="n">
+        <v>-22.97250118861762</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2577,16 +2671,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1234136391921406</v>
+        <v>-0.4278012212317118</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03093018831374852</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.99007073414044</v>
+        <v>0.02459588851443305</v>
       </c>
       <c r="E3" t="n">
-        <v>6.605359363298646e-05</v>
+        <v>-17.39320053352311</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2596,16 +2693,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2899056140658642</v>
+        <v>-0.2417800528948429</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04688025283676256</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.183960122299639</v>
+        <v>0.1107064348899818</v>
       </c>
       <c r="E4" t="n">
-        <v>6.251317241634524e-10</v>
+        <v>-2.183974699710272</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02896410721918863</v>
       </c>
     </row>
     <row r="5">
@@ -2615,15 +2715,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6766497520089455</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04448256415771591</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>15.21157255255876</v>
+        <v>0.1067403276474742</v>
       </c>
       <c r="E5" t="n">
+        <v>9.368530358110279</v>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2639,58 +2742,58 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Sample size</t>
+          <t>Number of free parameters</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2843</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Excluded observations</t>
+          <t>Sample size</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Init log likelihood</t>
+          <t>Excluded observations</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-18791.72526554332</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Final log likelihood</t>
+          <t>Init log likelihood</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-9180.291125188092</v>
+        <v>-20236.16515193324</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2699,15 +2802,16 @@
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Likelihood ratio test for the init. model</t>
+          <t>Final log likelihood</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19222.86828071046</v>
+        <v>-14417.80501636476</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2716,32 +2820,34 @@
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Rho-square for the init. model</t>
+          <t>Likelihood ratio test for the init. model</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.511471618733105</v>
+        <v>11636.72027113697</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>.3g</t>
+          <t>.7g</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Rho-square-bar for the init. model</t>
+          <t>Rho-square for the init. model</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5112587590864532</v>
+        <v>0.2875228627501408</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2750,32 +2856,34 @@
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Akaike Information Criterion</t>
+          <t>Rho-square-bar for the init. model</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18368.58225037618</v>
+        <v>0.2873251968401244</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>.7g</t>
+          <t>.3g</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Bayesian Information Criterion</t>
+          <t>Akaike Information Criterion</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18392.39271082279</v>
+        <v>28843.61003272951</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2784,36 +2892,57 @@
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Final gradient norm</t>
+          <t>Bayesian Information Criterion</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001377794991047163</v>
+        <v>28867.63550300011</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>.4E</t>
+          <t>.7g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Nbr of threads</t>
+          <t>Final gradient norm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>134.631521552771</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>.4E</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Nbr of threads</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>32</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2868,19 +2997,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.04584736672237004</v>
+        <v>-0.05864232559354104</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03573481529882686</v>
+        <v>0.01025620594458674</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.282988769886693</v>
+        <v>-5.717740645066964</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1994960105235748</v>
+        <v>1.07949735816959e-08</v>
       </c>
     </row>
     <row r="3">
@@ -2896,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>91.34476141103299</v>
+        <v>8.529867778171306</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2912,19 +3041,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.945236965861489</v>
+        <v>3.114130876062317</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>82.62187152580499</v>
+        <v>7.675994833363649</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03564718290049401</v>
+        <v>0.4056973647932607</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9715636856951178</v>
+        <v>0.6849649787632495</v>
       </c>
     </row>
     <row r="5">
@@ -2934,19 +3063,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7197778693643624</v>
+        <v>-0.7025872625288918</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1565506634935924</v>
+        <v>0.09729242379236468</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.597731196417593</v>
+        <v>-7.221397464907535</v>
       </c>
       <c r="F5" t="n">
-        <v>4.271165524372122e-06</v>
+        <v>5.144773496112975e-13</v>
       </c>
     </row>
     <row r="6">
@@ -2956,19 +3085,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5829838190950722</v>
+        <v>0.5165956339952086</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>7.832979879354997</v>
+        <v>0.7664095302832028</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07442682453859154</v>
+        <v>0.6740464641721206</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9406707650953932</v>
+        <v>0.5002817739395595</v>
       </c>
     </row>
     <row r="7">
@@ -2978,19 +3107,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.9449077950945802</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>10.00256638018863</v>
+        <v>0.8961300302074291</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09997434278273114</v>
+        <v>1.054431570467358</v>
       </c>
       <c r="F7" t="n">
-        <v>0.920364694867583</v>
+        <v>0.2916853745861725</v>
       </c>
     </row>
     <row r="8">
@@ -3014,7 +3143,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -3028,7 +3157,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -3056,7 +3185,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1325.92721036039</v>
+        <v>-1429.902316127543</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3074,7 +3203,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-525.189783253418</v>
+        <v>-601.0075998019227</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3092,7 +3221,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1601.474854213943</v>
+        <v>1657.78943265124</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -3110,7 +3239,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6039075304060844</v>
+        <v>0.5796862533731887</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3128,7 +3257,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5993823951248126</v>
+        <v>0.5754901625407399</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -3146,7 +3275,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1062.379566506836</v>
+        <v>1214.015199603845</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -3164,7 +3293,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1076.519819466974</v>
+        <v>1228.528243250625</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -3182,7 +3311,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.780206695869118</v>
+        <v>3.826076440944236</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3200,7 +3329,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -3218,7 +3347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3234,20 +3363,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Active bound</t>
+          <t>Rob. Std err</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Rob. Std err</t>
+          <t>Rob. t-test</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Rob. t-test</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Rob. p-value</t>
         </is>
@@ -3260,18 +3384,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1026324029171398</v>
+        <v>-0.04916968126623246</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.002547370876898302</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003182675168352499</v>
+        <v>-19.30212899587745</v>
       </c>
       <c r="E2" t="n">
-        <v>-32.24721263975772</v>
-      </c>
-      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3282,19 +3403,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.171211652255832</v>
+        <v>3.592923363279845</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.6903630360261485</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9770278437330229</v>
+        <v>5.204397071954122</v>
       </c>
       <c r="E3" t="n">
-        <v>3.245774081667195</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.001171317522422388</v>
+        <v>1.946274599262665e-07</v>
       </c>
     </row>
     <row r="4">
@@ -3304,19 +3422,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.333260152947036</v>
+        <v>4.556739384789086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.6683830684949779</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9377018236169113</v>
+        <v>6.817556577322732</v>
       </c>
       <c r="E4" t="n">
-        <v>4.621149328933529</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.816199543926757e-06</v>
+        <v>9.260148203793506e-12</v>
       </c>
     </row>
     <row r="5">
@@ -3326,18 +3441,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6771292037785683</v>
+        <v>-0.4923179029682071</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.01725432820618601</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01869167144515652</v>
+        <v>-28.53300905634227</v>
       </c>
       <c r="E5" t="n">
-        <v>-36.22625219822327</v>
-      </c>
-      <c r="F5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3348,19 +3460,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.18200344286707</v>
+        <v>0.02647624917366442</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.02709335042745027</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03675111994403917</v>
+        <v>0.9772231472280144</v>
       </c>
       <c r="E6" t="n">
-        <v>4.952323715418909</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7.333247933338782e-07</v>
+        <v>0.3284586908828202</v>
       </c>
     </row>
     <row r="7">
@@ -3370,18 +3479,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.9192245451111283</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.02152681604013931</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02673147409865249</v>
+        <v>42.70137039296125</v>
       </c>
       <c r="E7" t="n">
-        <v>37.40908549635163</v>
-      </c>
-      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3397,58 +3503,58 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Number of free parameters</t>
+          <t>Sample size</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Sample size</t>
+          <t>Excluded observations</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2519</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Excluded observations</t>
+          <t>Init log likelihood</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>-24227.97484231687</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Init log likelihood</t>
+          <t>Final log likelihood</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-20113.59105808105</v>
+        <v>-12646.64988518232</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3457,16 +3563,15 @@
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Final log likelihood</t>
+          <t>Likelihood ratio test for the init. model</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5927.766049177832</v>
+        <v>23162.6499142691</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3475,34 +3580,32 @@
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Likelihood ratio test for the init. model</t>
+          <t>Rho-square for the init. model</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28371.65001780644</v>
+        <v>0.4780145692122177</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>.7g</t>
+          <t>.3g</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Rho-square for the init. model</t>
+          <t>Rho-square-bar for the init. model</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7052855438861958</v>
+        <v>0.477766921604894</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3511,34 +3614,32 @@
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Rho-square-bar for the init. model</t>
+          <t>Akaike Information Criterion</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7049872381295224</v>
+        <v>25305.29977036464</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>.3g</t>
+          <t>.7g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Akaike Information Criterion</t>
+          <t>Bayesian Information Criterion</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11867.53209835566</v>
+        <v>25341.33797577054</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -3547,57 +3648,36 @@
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Bayesian Information Criterion</t>
+          <t>Final gradient norm</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11902.52180201378</v>
+        <v>5.183537238509675</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>.7g</t>
+          <t>.4E</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Final gradient norm</t>
+          <t>Nbr of threads</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>129.3180316427548</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>.4E</t>
-        </is>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Nbr of threads</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3652,16 +3732,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.06220933550847492</v>
+        <v>-0.0582379724589261</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002642918064607269</v>
+        <v>0.002677563641293576</v>
       </c>
       <c r="E2" t="n">
-        <v>-23.53812490124209</v>
+        <v>-21.75035975271548</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3674,19 +3754,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0.5018907117393659</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06415269077258071</v>
+        <v>0.02847869661133696</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-17.62337366028088</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3696,19 +3776,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3862940315460207</v>
+        <v>0.2203086242826931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0658756550070482</v>
+        <v>0.04905257991084738</v>
       </c>
       <c r="E4" t="n">
-        <v>5.863987712982741</v>
+        <v>4.491274968270823</v>
       </c>
       <c r="F4" t="n">
-        <v>4.518809326725659e-09</v>
+        <v>7.079807786469772e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3724,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5611695224023144</v>
+        <v>0.4337240257767035</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3740,19 +3820,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.032397044939849</v>
+        <v>1.149919828501426</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5378747502135057</v>
+        <v>0.400390991543599</v>
       </c>
       <c r="E6" t="n">
-        <v>1.919400463639622</v>
+        <v>2.871992259536663</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05493367231619151</v>
+        <v>0.004078929579633961</v>
       </c>
     </row>
     <row r="7">
@@ -3762,16 +3842,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7625780466469997</v>
+        <v>0.8336103454180922</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04025490301248441</v>
+        <v>0.03287352093709801</v>
       </c>
       <c r="E7" t="n">
-        <v>18.94373081486492</v>
+        <v>25.35810955611259</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3798,7 +3878,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -3812,7 +3892,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>443</v>
+        <v>524</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -3840,7 +3920,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-6075.275153823977</v>
+        <v>-7243.634704488215</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3858,7 +3938,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2180.242843591393</v>
+        <v>-3181.800627778563</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3876,7 +3956,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7790.064620465168</v>
+        <v>8123.668153419304</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -3894,7 +3974,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6411285434176464</v>
+        <v>0.5607452946506133</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3912,7 +3992,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6401409338282728</v>
+        <v>0.5599169812078768</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -3930,7 +4010,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4372.485687182786</v>
+        <v>6375.601255557126</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -3948,7 +4028,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4397.047105803057</v>
+        <v>6401.170205663052</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -3966,7 +4046,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.17890729365865</v>
+        <v>7.534746487298993</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3984,7 +4064,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -3997,6 +4077,398 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Active bound</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rob. Std err</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rob. t-test</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Rob. p-value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>b_dist</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.04921651797800505</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00241949275948247</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-20.34166780831056</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>b_gc</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.2045143308115769</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01681810672572272</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-12.16036585728043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>b_pop</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.02236527166300042</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03127390009406585</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.715141750652461</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4745214578186752</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>b_shop1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.352518771526862</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>b_shop2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.714183683516364</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.084668517764386</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.301973748050397</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1929253598955407</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>b_size</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6078988471200174</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02427043966370927</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25.04688236154976</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Number of estimated parameters</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Number of free parameters</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Sample size</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Excluded observations</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Init log likelihood</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-19146.6168722216</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Final log likelihood</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-11649.40612985686</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Likelihood ratio test for the init. model</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>14994.42148472949</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Rho-square for the init. model</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.3915684317704131</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>.3g</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Rho-square-bar for the init. model</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.3912550604818955</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>.3g</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Akaike Information Criterion</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>23310.81225971371</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Bayesian Information Criterion</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>23346.85046511961</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Final gradient norm</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.484764616040953</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>.4E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Nbr of threads</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>32</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4039,13 +4511,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1078962153986839</v>
+        <v>-0.02843271051657928</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003401519367376815</v>
+        <v>0.001625591555414911</v>
       </c>
       <c r="D2" t="n">
-        <v>-31.72000619296529</v>
+        <v>-17.49068541963617</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4058,13 +4530,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4642301588601031</v>
+        <v>-0.4326717513070564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01252060351572385</v>
+        <v>0.01506948116810554</v>
       </c>
       <c r="D3" t="n">
-        <v>-37.07729889195078</v>
+        <v>-28.71178818171944</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4073,58 +4545,58 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>b_pop</t>
+          <t>b_leisure1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1617967583223562</v>
+        <v>1.642922288959364</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03734487903813909</v>
+        <v>0.3712496641674281</v>
       </c>
       <c r="D4" t="n">
-        <v>4.332501871464586</v>
+        <v>4.425383906121006</v>
       </c>
       <c r="E4" t="n">
-        <v>1.474244095778232e-05</v>
+        <v>9.627092001585069e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>b_shop1</t>
+          <t>b_leisure2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.765717693784256</v>
+        <v>1.081075960198639</v>
       </c>
       <c r="C5" t="n">
-        <v>3.321984913853835</v>
+        <v>0.3779235349213176</v>
       </c>
       <c r="D5" t="n">
-        <v>1.73562428587174</v>
+        <v>2.860567972893552</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08263028891767865</v>
+        <v>0.004228828890673775</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>b_shop2</t>
+          <t>b_pop</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.647232878933804</v>
+        <v>0.3076589592423041</v>
       </c>
       <c r="C6" t="n">
-        <v>3.318577803701379</v>
+        <v>0.03823561619415349</v>
       </c>
       <c r="D6" t="n">
-        <v>2.304370525953755</v>
+        <v>8.046397308730894</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02120185306318634</v>
+        <v>8.881784197001252e-16</v>
       </c>
     </row>
     <row r="7">
@@ -4134,13 +4606,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8300160803141982</v>
+        <v>0.9098372659287616</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02454166404302086</v>
+        <v>0.02697162538545468</v>
       </c>
       <c r="D7" t="n">
-        <v>33.82069279651139</v>
+        <v>33.73312705208417</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4166,7 +4638,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3000</v>
+        <v>879</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -4192,7 +4664,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-18933.13725776339</v>
+        <v>-10940.91475380965</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -4209,7 +4681,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-6537.597374404761</v>
+        <v>-6712.809679541367</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -4226,7 +4698,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24791.07976671725</v>
+        <v>8456.210148536577</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -4243,7 +4715,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6547007880733517</v>
+        <v>0.3864489550835821</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -4260,7 +4732,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.654383883383003</v>
+        <v>0.3859005548688824</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -4277,7 +4749,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13087.19474880952</v>
+        <v>13437.61935908273</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -4294,7 +4766,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13123.23295421542</v>
+        <v>13466.29206846885</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -4311,7 +4783,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.049202663356754</v>
+        <v>0.02036953281972687</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -4328,403 +4800,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Active bound</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Rob. Std err</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Rob. t-test</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Rob. p-value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>b_dist</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.03397171306858672</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.001986387493893825</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-17.10225883570859</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>b_gc</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.5201262141110222</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01696246197449844</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-30.66336802363867</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>b_leisure1</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2.888694387971905</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.447011284794753</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6.46224040920636</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.031639218496139e-10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>b_leisure2</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2.187117102086685</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.4575921678095172</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4.77962092873303</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.756260112895092e-06</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>b_pop</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.3654332055158802</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.04701480741512825</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.772725777417359</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7.771561172376096e-15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>b_size</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03495762032706477</v>
-      </c>
-      <c r="E7" t="n">
-        <v>28.60606616365655</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Number of estimated parameters</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Number of free parameters</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Sample size</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>662</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Excluded observations</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Init log likelihood</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-8120.050226237171</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Final log likelihood</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-4093.698961053844</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Likelihood ratio test for the init. model</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8052.702530366654</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Rho-square for the init. model</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.4958530000434661</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>.3g</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rho-square-bar for the init. model</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.4951140883578447</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>.3g</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Akaike Information Criterion</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8199.397922107688</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Bayesian Information Criterion</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>8226.36951544331</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Final gradient norm</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9.591054841867994</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>.4E</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Nbr of threads</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input/estimation_results_dest_inter.xlsx
+++ b/input/estimation_results_dest_inter.xlsx
@@ -7,18 +7,20 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1_0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2_0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2_1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="3_0" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="3_1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="4_0" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="4_1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="6_0" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="6_1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="7_0" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="7_1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="6_0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="6_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="7_0" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="7_1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="1_0" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="1_1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="5_0" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="5_1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="4_0" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="4_1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="2_0" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="2_1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="3_0" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="3_1" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,6 +438,673 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Rob. Std err</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rob. t-test</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rob. p-value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>b_dist</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.02848847429415425</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.001629412603590368</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-17.48389218997119</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>b_gc</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.4334572580735248</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01513323796774307</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-28.64273059060138</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>b_leisure1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.69855488957007</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3755294300370282</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.523093940740112</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.094217532837121e-06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>b_leisure2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.122101014822566</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3849099611112133</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.915229867221735</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.003554266503520642</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>b_pop</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3121122339370533</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.03933513005663897</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.934694342884858</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.220446049250313e-15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>b_size</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9063455614389508</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02756810633794548</v>
+      </c>
+      <c r="D7" t="n">
+        <v>32.87659842603816</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Number of estimated parameters</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Sample size</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>878</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Excluded observations</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Init log likelihood</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-10935.97357848504</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Final log likelihood</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-6706.892423946843</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Likelihood ratio test for the init. model</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8458.162309076401</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Rho-square for the init. model</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.3867128174905533</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>.3g</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Rho-square-bar for the init. model</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.3861641694934693</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>.3g</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Akaike Information Criterion</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>13425.78484789369</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Bayesian Information Criterion</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>13454.4507274555</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Final gradient norm</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0220761860072887</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>.4E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Nbr of threads</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>32</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Rob. Std err</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rob. t-test</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rob. p-value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>b_dist</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.04380533053335307</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.002648966267370702</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-16.53676419852381</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>b_gc</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.254506267242086</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01442517942418485</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-17.64319595327792</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>b_pop</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1199708287955123</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02527088063660628</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.747394066739719</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.060542482640315e-06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>b_shop1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.20573412104745</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2284095004039126</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.0350296961314</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>b_size</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5771022189875059</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01901320120603292</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.35271192545894</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Number of estimated parameters</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Sample size</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Excluded observations</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Init log likelihood</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-19143.33545233162</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Final log likelihood</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-12004.59673514913</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Likelihood ratio test for the init. model</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14277.47743436496</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Rho-square for the init. model</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3729098690747228</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>.3g</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Rho-square-bar for the init. model</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.3726486815709854</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>.3g</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Akaike Information Criterion</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>24019.19347029827</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Bayesian Information Criterion</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>24049.22530813652</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Final gradient norm</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.05418789399570631</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>.4E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Nbr of threads</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>32</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -478,19 +1147,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0656181723694778</v>
+        <v>-0.03193528386593557</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00350376126725795</v>
+        <v>0.003961599216574465</v>
       </c>
       <c r="E2" t="n">
-        <v>-18.72792332704525</v>
+        <v>-8.061210162887081</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
     </row>
     <row r="3">
@@ -500,19 +1169,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3175087654376434</v>
+        <v>-0.4337201006626755</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02267235055023482</v>
+        <v>0.08501386071914399</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.00422795749138</v>
+        <v>-5.101757489823156</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.365137821731423e-07</v>
       </c>
     </row>
     <row r="4">
@@ -522,19 +1191,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3480128829922304</v>
+        <v>0.3975896306135451</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2273041966360767</v>
+        <v>0.4697380315888652</v>
       </c>
       <c r="E4" t="n">
-        <v>1.531044688758709</v>
+        <v>0.8464071543637167</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1257583483344495</v>
+        <v>0.3973256487376449</v>
       </c>
     </row>
     <row r="5">
@@ -550,13 +1219,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2088230223022156</v>
+        <v>0.4321380014029647</v>
       </c>
       <c r="E5" t="n">
-        <v>4.788744023409292</v>
+        <v>2.314075588708778</v>
       </c>
       <c r="F5" t="n">
-        <v>1.678283947592618e-06</v>
+        <v>0.02066357619763415</v>
       </c>
     </row>
     <row r="6">
@@ -594,7 +1263,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>448</v>
+        <v>103</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -622,7 +1291,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6511.187885598389</v>
+        <v>-1111.625394970781</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -640,7 +1309,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3141.54055747438</v>
+        <v>-582.9781452551226</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -658,7 +1327,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6739.294656248017</v>
+        <v>1057.294499431317</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -676,7 +1345,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5175165249918652</v>
+        <v>0.4755624080804253</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -694,7 +1363,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5169021977645942</v>
+        <v>0.4719640735892408</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -712,7 +1381,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6291.081114948761</v>
+        <v>1173.956290510245</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -730,7 +1399,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6307.500287878421</v>
+        <v>1184.495206463164</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -748,7 +1417,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.39290913453294</v>
+        <v>10.08618897618937</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -778,7 +1447,747 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Active bound</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rob. Std err</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rob. t-test</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Rob. p-value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>b_dist</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.02014365774639709</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0008433246466220304</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-23.88600621016271</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>b_gc</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.4516790106864662</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02327984157813929</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-19.40215139224191</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>b_pop</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.2534460077358052</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.114024000094006</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-2.222742646520504</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02623315844585639</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>b_size</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1115186945024439</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.967106407240848</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Number of estimated parameters</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Number of free parameters</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Sample size</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Excluded observations</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Init log likelihood</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-20219.60510680221</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Final log likelihood</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-14556.36046352473</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Likelihood ratio test for the init. model</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11326.48928655496</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Rho-square for the init. model</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2800868075001262</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>.3g</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Rho-square-bar for the init. model</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2798889796998861</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>.3g</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Akaike Information Criterion</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>29120.72092704947</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Bayesian Information Criterion</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>29144.74639732007</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Final gradient norm</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>153.0017262888432</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>.4E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Nbr of threads</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>32</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Active bound</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rob. Std err</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rob. t-test</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Rob. p-value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>b_dist</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.04586998928325552</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0124078238972321</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-3.696860115292905</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0002182825399310584</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>b_edu1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.041223837143594</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>b_edu2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.111263832986638</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.131460339470429</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3826205506881021</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7020011304986613</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>b_gc</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.679837430698939</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1157226373420165</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5.874714285068443</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.235732431467909e-09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>b_pop</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5346998071064349</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8244843600455906</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6485263190157643</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5166445937791713</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>b_size</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9500809112740668</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9587758320188797</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9909312266179007</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3217191632349445</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Number of estimated parameters</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Number of free parameters</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Sample size</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>83</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Excluded observations</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Init log likelihood</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-1349.176807991132</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Final log likelihood</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-600.0099992635647</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Likelihood ratio test for the init. model</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1498.333617455135</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Rho-square for the init. model</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5552769691046243</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>.3g</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Rho-square-bar for the init. model</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5508298129094821</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>.3g</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Akaike Information Criterion</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1212.019998527129</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Bayesian Information Criterion</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1226.533042173909</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Final gradient norm</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3.919353574167466</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>.4E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Nbr of threads</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>32</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -821,13 +2230,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.03190395006970476</v>
+        <v>-0.05157492002805895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001626547850677865</v>
+        <v>0.002753983289006081</v>
       </c>
       <c r="D2" t="n">
-        <v>-19.61451675486139</v>
+        <v>-18.72739033455517</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -836,58 +2245,58 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>b_gc</t>
+          <t>b_edu1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5107922058524693</v>
+        <v>2.935642799619888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0195385792228966</v>
+        <v>0.5805026515714486</v>
       </c>
       <c r="D3" t="n">
-        <v>-26.14275071003572</v>
+        <v>5.057070440028071</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>4.257460135548286e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>b_leisure1</t>
+          <t>b_edu2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.316192148731411</v>
+        <v>4.012207946937818</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3289821241267046</v>
+        <v>0.5465005043574892</v>
       </c>
       <c r="D4" t="n">
-        <v>4.000801418087053</v>
+        <v>7.341636311305693</v>
       </c>
       <c r="E4" t="n">
-        <v>6.312831921606588e-05</v>
+        <v>2.109423746787797e-13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>b_leisure2</t>
+          <t>b_gc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.339667615102549</v>
+        <v>-0.4088817168274438</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3208987948159699</v>
+        <v>0.01662916058147359</v>
       </c>
       <c r="D5" t="n">
-        <v>4.174735576276706</v>
+        <v>-24.58823551700953</v>
       </c>
       <c r="E5" t="n">
-        <v>2.98332366179821e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +2306,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2016982707729148</v>
+        <v>0.05034498442041514</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02981880839560894</v>
+        <v>0.02799675531301163</v>
       </c>
       <c r="D6" t="n">
-        <v>6.76412913946677</v>
+        <v>1.798243541351274</v>
       </c>
       <c r="E6" t="n">
-        <v>1.341127209286697e-11</v>
+        <v>0.07213842235317047</v>
       </c>
     </row>
     <row r="7">
@@ -916,13 +2325,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7701846207043722</v>
+        <v>0.9151844364671434</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02022756161507575</v>
+        <v>0.0224850364305565</v>
       </c>
       <c r="D7" t="n">
-        <v>38.07599924107253</v>
+        <v>40.70193256273469</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -974,7 +2383,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-21005.64432426355</v>
+        <v>-23478.35661115002</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -991,7 +2400,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-13148.06843296155</v>
+        <v>-12226.83534891001</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1008,7 +2417,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15715.151782604</v>
+        <v>22503.04252448002</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1025,7 +2434,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3740697390665491</v>
+        <v>0.4792295069279505</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1042,7 +2451,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3737841015537273</v>
+        <v>0.4789739524145162</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1059,7 +2468,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26308.13686592309</v>
+        <v>24465.67069782002</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1076,7 +2485,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26344.17507132899</v>
+        <v>24501.70890322592</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1093,7 +2502,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.069168422166049</v>
+        <v>0.003218411138741203</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1121,7 +2530,350 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Rob. Std err</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rob. t-test</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rob. p-value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>b_dist</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.03160799347351191</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.001616223806806962</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-19.55669341114161</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>b_gc</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.5045812683295808</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.02182719400048429</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-23.11709275678704</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>b_leisure1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.217390718784558</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3658675882216192</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.327407942042518</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0008765794645655411</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>b_leisure2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.471112006841792</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3116586448146139</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.72026696938525</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.355353041938457e-06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>b_pop</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2106064696070174</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02850414046897418</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.388627271054029</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.483257960899209e-13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>b_size</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7561151644813077</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0201071837981118</v>
+      </c>
+      <c r="D7" t="n">
+        <v>37.60423001416598</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Number of estimated parameters</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Sample size</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Excluded observations</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Init log likelihood</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-20914.26694878723</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Final log likelihood</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-13201.59414057533</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Likelihood ratio test for the init. model</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>15425.34561642381</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Rho-square for the init. model</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.3687756700771739</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>.3g</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Rho-square-bar for the init. model</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.3684887845738621</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>.3g</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Akaike Information Criterion</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>26415.18828115066</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Bayesian Information Criterion</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>26451.22648655656</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Final gradient norm</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2.521433579809155</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>.4E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Nbr of threads</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>32</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1175,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3.560498472435033</v>
+        <v>3.257407255124402</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1197,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.449357184314378</v>
+        <v>2.303606039639322</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1213,19 +2965,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03218711049312539</v>
+        <v>-0.0288974988644549</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005757873561864899</v>
+        <v>0.006156129945527093</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.590103733139359</v>
+        <v>-4.694101508603011</v>
       </c>
       <c r="F4" t="n">
-        <v>2.26934002700574e-08</v>
+        <v>2.677810488682653e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1235,19 +2987,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04378095799185945</v>
+        <v>-0.1314916335011799</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009659103514855759</v>
+        <v>0.02823160831981997</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.53261091202968</v>
+        <v>-4.657603350527726</v>
       </c>
       <c r="F5" t="n">
-        <v>5.825906827183758e-06</v>
+        <v>3.199118318919503e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1257,19 +3009,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1840471370125641</v>
+        <v>0.1533004668529897</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1886517467712728</v>
+        <v>0.1873585390020372</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9755920110069722</v>
+        <v>0.8182198028952541</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3292666850833981</v>
+        <v>0.4132316895093868</v>
       </c>
     </row>
     <row r="7">
@@ -1279,19 +3031,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7746458846021014</v>
+        <v>0.8148830888305273</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2327450314650577</v>
+        <v>0.2282415202657541</v>
       </c>
       <c r="E7" t="n">
-        <v>3.32830256236168</v>
+        <v>3.570266653857345</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008737691452920249</v>
+        <v>0.0003566180148317777</v>
       </c>
     </row>
     <row r="8">
@@ -1357,7 +3109,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-591.9243327115266</v>
+        <v>-664.6237434523512</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1375,7 +3127,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-507.5208859948845</v>
+        <v>-504.2559911185022</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1393,7 +3145,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>168.8068934332844</v>
+        <v>320.7355046676979</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1411,7 +3163,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1425916152660953</v>
+        <v>0.241291037092397</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1429,7 +3181,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1324551845292226</v>
+        <v>0.2322633728551349</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1447,7 +3199,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1027.041771989769</v>
+        <v>1020.511982237004</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1465,7 +3217,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1040.866162548994</v>
+        <v>1034.336372796229</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1483,7 +3235,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.796716516150584</v>
+        <v>1.886424563139362</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1513,7 +3265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1561,16 +3313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.734723475976807e-18</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.421501367851483</v>
+        <v>0.4709676059063473</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.683318033388818e-18</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -1583,19 +3335,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.236837852200811</v>
+        <v>1.44986104585521</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3894759180521785</v>
+        <v>0.3826264294699332</v>
       </c>
       <c r="E3" t="n">
-        <v>3.175646541604943</v>
+        <v>3.789233921618424</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001495029896796174</v>
+        <v>0.0001511125698818727</v>
       </c>
     </row>
     <row r="4">
@@ -1605,16 +3357,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04458116264573329</v>
+        <v>-0.05055058076079415</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00231827249055056</v>
+        <v>0.002543999362188242</v>
       </c>
       <c r="E4" t="n">
-        <v>-19.23033760157583</v>
+        <v>-19.87051628712384</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1627,16 +3379,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2413372848124032</v>
+        <v>-0.2165507535085482</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01117792611667252</v>
+        <v>0.01230677076328991</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.59052424335091</v>
+        <v>-17.59606623652254</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1649,19 +3401,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02911918141922575</v>
+        <v>0.03542068067157891</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02591821295979685</v>
+        <v>0.02565822431088136</v>
       </c>
       <c r="E6" t="n">
-        <v>1.123502668351175</v>
+        <v>1.380480591424146</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2612240679575182</v>
+        <v>0.1674387214409769</v>
       </c>
     </row>
     <row r="7">
@@ -1671,16 +3423,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7383158413321552</v>
+        <v>0.7069127932148558</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02212961772631528</v>
+        <v>0.02218975295623823</v>
       </c>
       <c r="E7" t="n">
-        <v>33.36324424864294</v>
+        <v>31.85762340883208</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1749,7 +3501,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-21375.37341211332</v>
+        <v>-20489.22438039594</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1767,7 +3519,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-13477.71008953989</v>
+        <v>-12714.36514110209</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1785,7 +3537,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15795.32664514687</v>
+        <v>15549.71847858771</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1803,7 +3555,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3694748704646191</v>
+        <v>0.3794608861198685</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1821,7 +3573,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3691941736138871</v>
+        <v>0.3791680492662811</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1839,7 +3591,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26967.42017907978</v>
+        <v>25440.73028220417</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1857,7 +3609,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>27003.45838448568</v>
+        <v>25476.76848761007</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1875,7 +3627,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.48601638122353</v>
+        <v>2.38704060696273</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1905,7 +3657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1953,16 +3705,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.04698932540467751</v>
+        <v>-0.06549779714165771</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002278010861677453</v>
+        <v>0.003524902747826018</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.62734914708707</v>
+        <v>-18.58144800790701</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1975,16 +3727,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1033675928630548</v>
+        <v>-0.3210100802650104</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007154111309618218</v>
+        <v>0.0213705268442223</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.4486978730795</v>
+        <v>-15.02115893562063</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1997,19 +3749,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1111793575700077</v>
+        <v>0.3922135432175435</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1119578072938749</v>
+        <v>0.2425241594981888</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.9930469366747792</v>
+        <v>1.61721431806662</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3206870814057468</v>
+        <v>0.1058320267187041</v>
       </c>
     </row>
     <row r="5">
@@ -2025,13 +3777,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1052599240027014</v>
+        <v>0.2254977366530656</v>
       </c>
       <c r="E5" t="n">
-        <v>9.500291867722952</v>
+        <v>4.434634310935578</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>9.222870671843353e-06</v>
       </c>
     </row>
     <row r="6">
@@ -2069,7 +3821,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3000</v>
+        <v>448</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -2097,7 +3849,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20035.94243880998</v>
+        <v>-6476.67127843023</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2115,7 +3867,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-12990.50965213858</v>
+        <v>-3118.496319886515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2133,7 +3885,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14090.86557334281</v>
+        <v>6716.34991708743</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2151,7 +3903,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3516396999137047</v>
+        <v>0.5185032270709354</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2169,7 +3921,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3514400586933221</v>
+        <v>0.5178856258637656</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2187,7 +3939,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25989.01930427716</v>
+        <v>6244.99263977303</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2205,7 +3957,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26013.04477454776</v>
+        <v>6261.41181270269</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2223,7 +3975,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>202.3981441189071</v>
+        <v>87.24154808888017</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2253,7 +4005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2301,19 +4053,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.03216479217574236</v>
+        <v>-0.05277218002768103</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003938918165872461</v>
+        <v>0.002394893157732443</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.165895004984938</v>
+        <v>-22.03529617064309</v>
       </c>
       <c r="F2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2323,19 +4075,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4404307217351436</v>
+        <v>-0.07244367356571151</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08578517167855823</v>
+        <v>0.005843596621859262</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.134112494236904</v>
+        <v>-12.39710374510109</v>
       </c>
       <c r="F3" t="n">
-        <v>2.83478509555124e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2345,19 +4097,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3844180284078708</v>
+        <v>-0.0157386842282288</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.431580545794383</v>
+        <v>0.1126099860987826</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8907214010314038</v>
+        <v>-0.1397627756957777</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3730786506837549</v>
+        <v>0.8888474252476017</v>
       </c>
     </row>
     <row r="5">
@@ -2373,13 +4125,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3864974855180329</v>
+        <v>0.1049583248913873</v>
       </c>
       <c r="E5" t="n">
-        <v>2.587338954248753</v>
+        <v>9.52759107993403</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009672039635891139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2417,7 +4169,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>103</v>
+        <v>3000</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -2445,7 +4197,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1111.713961999799</v>
+        <v>-19860.62973981721</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2463,7 +4215,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-585.7313039101724</v>
+        <v>-12578.56263601383</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2481,7 +4233,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1051.965316179253</v>
+        <v>14564.13420760677</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2499,7 +4251,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4731276893774603</v>
+        <v>0.3666584191539539</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2517,7 +4269,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4695296415551548</v>
+        <v>0.3664570156711641</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2535,7 +4287,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1179.462607820345</v>
+        <v>25165.12527202766</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2553,7 +4305,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1190.001523773263</v>
+        <v>25189.15074229826</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2571,7 +4323,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.35664180301865</v>
+        <v>176.8456297278667</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2595,1089 +4347,6 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Active bound</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Rob. Std err</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Rob. t-test</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Rob. p-value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>b_dist</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.02094008039733491</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0009115281015943652</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-22.97250118861762</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>b_gc</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.4278012212317118</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02459588851443305</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-17.39320053352311</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>b_pop</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.2417800528948429</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1107064348899818</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-2.183974699710272</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.02896410721918863</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>b_size</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1067403276474742</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9.368530358110279</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Number of estimated parameters</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Number of free parameters</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Sample size</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Excluded observations</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Init log likelihood</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-20236.16515193324</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Final log likelihood</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-14417.80501636476</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Likelihood ratio test for the init. model</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11636.72027113697</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Rho-square for the init. model</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.2875228627501408</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>.3g</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Rho-square-bar for the init. model</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.2873251968401244</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>.3g</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Akaike Information Criterion</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>28843.61003272951</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Bayesian Information Criterion</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>28867.63550300011</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Final gradient norm</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>134.631521552771</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>.4E</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Nbr of threads</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>32</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Active bound</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Rob. Std err</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Rob. t-test</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Rob. p-value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>b_dist</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.05864232559354104</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01025620594458674</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-5.717740645066964</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.07949735816959e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>b_edu1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.529867778171306</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>b_edu2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3.114130876062317</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.675994833363649</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4056973647932607</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6849649787632495</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>b_gc</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.7025872625288918</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.09729242379236468</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-7.221397464907535</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5.144773496112975e-13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>b_pop</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5165956339952086</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7664095302832028</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.6740464641721206</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5002817739395595</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>b_size</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9449077950945802</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8961300302074291</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.054431570467358</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2916853745861725</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Number of estimated parameters</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Number of free parameters</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Sample size</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>83</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Excluded observations</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Init log likelihood</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-1429.902316127543</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Final log likelihood</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-601.0075998019227</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Likelihood ratio test for the init. model</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1657.78943265124</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Rho-square for the init. model</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5796862533731887</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>.3g</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rho-square-bar for the init. model</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.5754901625407399</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>.3g</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Akaike Information Criterion</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1214.015199603845</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Bayesian Information Criterion</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1228.528243250625</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Final gradient norm</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3.826076440944236</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>.4E</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Nbr of threads</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>32</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Rob. Std err</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Rob. t-test</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Rob. p-value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>b_dist</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.04916968126623246</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.002547370876898302</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-19.30212899587745</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>b_edu1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3.592923363279845</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6903630360261485</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.204397071954122</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.946274599262665e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>b_edu2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4.556739384789086</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6683830684949779</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.817556577322732</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9.260148203793506e-12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>b_gc</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.4923179029682071</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.01725432820618601</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-28.53300905634227</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>b_pop</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.02647624917366442</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.02709335042745027</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9772231472280144</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.3284586908828202</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>b_size</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9192245451111283</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.02152681604013931</v>
-      </c>
-      <c r="D7" t="n">
-        <v>42.70137039296125</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Number of estimated parameters</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Sample size</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Excluded observations</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Init log likelihood</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-24227.97484231687</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Final log likelihood</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-12646.64988518232</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Likelihood ratio test for the init. model</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>23162.6499142691</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Rho-square for the init. model</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.4780145692122177</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>.3g</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Rho-square-bar for the init. model</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.477766921604894</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>.3g</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Akaike Information Criterion</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>25305.29977036464</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Bayesian Information Criterion</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>25341.33797577054</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Final gradient norm</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5.183537238509675</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>.4E</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Nbr of threads</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>32</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3690,7 +4359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3732,16 +4401,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0582379724589261</v>
+        <v>-0.05754824738029906</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002677563641293576</v>
+        <v>0.002862373585320325</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.75035975271548</v>
+        <v>-20.10507911176762</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3754,16 +4423,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5018907117393659</v>
+        <v>-0.4598416740898934</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02847869661133696</v>
+        <v>0.03808696586072528</v>
       </c>
       <c r="E3" t="n">
-        <v>-17.62337366028088</v>
+        <v>-12.07346565151506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3776,19 +4445,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2203086242826931</v>
+        <v>0.07867970271505627</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04905257991084738</v>
+        <v>0.07208941774515798</v>
       </c>
       <c r="E4" t="n">
-        <v>4.491274968270823</v>
+        <v>1.091418202227621</v>
       </c>
       <c r="F4" t="n">
-        <v>7.079807786469772e-06</v>
+        <v>0.275088906627557</v>
       </c>
     </row>
     <row r="5">
@@ -3804,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4337240257767035</v>
+        <v>0.2914868583370425</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3816,55 +4485,47 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>b_shop2</t>
+          <t>b_size</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.149919828501426</v>
+        <v>0.8132936338205848</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.400390991543599</v>
+        <v>0.05064465454763277</v>
       </c>
       <c r="E6" t="n">
-        <v>2.871992259536663</v>
+        <v>16.05882478782945</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004078929579633961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>b_size</t>
+          <t>Number of estimated parameters</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8336103454180922</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03287352093709801</v>
-      </c>
-      <c r="E7" t="n">
-        <v>25.35810955611259</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Number of estimated parameters</t>
+          <t>Number of free parameters</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -3874,11 +4535,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Number of free parameters</t>
+          <t>Sample size</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>332</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -3888,11 +4549,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Sample size</t>
+          <t>Excluded observations</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>524</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -3902,13 +4563,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Excluded observations</t>
+          <t>Init log likelihood</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>-4845.405087105066</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -3916,11 +4581,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Init log likelihood</t>
+          <t>Final log likelihood</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-7243.634704488215</v>
+        <v>-2189.01346314308</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3934,11 +4599,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Final log likelihood</t>
+          <t>Likelihood ratio test for the init. model</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3181.800627778563</v>
+        <v>5312.783247923972</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3952,15 +4617,15 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Likelihood ratio test for the init. model</t>
+          <t>Rho-square for the init. model</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8123.668153419304</v>
+        <v>0.5482290079381316</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>.7g</t>
+          <t>.3g</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -3970,11 +4635,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Rho-square for the init. model</t>
+          <t>Rho-square-bar for the init. model</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5607452946506133</v>
+        <v>0.5471971024709692</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3988,15 +4653,15 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Rho-square-bar for the init. model</t>
+          <t>Akaike Information Criterion</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5599169812078768</v>
+        <v>4388.026926286159</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>.3g</t>
+          <t>.7g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -4006,11 +4671,11 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Akaike Information Criterion</t>
+          <t>Bayesian Information Criterion</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6375.601255557126</v>
+        <v>4407.052601130742</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -4024,15 +4689,15 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Bayesian Information Criterion</t>
+          <t>Final gradient norm</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6401.170205663052</v>
+        <v>10.30530205936476</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>.7g</t>
+          <t>.4E</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -4042,34 +4707,16 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Final gradient norm</t>
+          <t>Nbr of threads</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.534746487298993</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>.4E</t>
-        </is>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Nbr of threads</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>32</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4082,7 +4729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4098,20 +4745,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Active bound</t>
+          <t>Rob. Std err</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Rob. Std err</t>
+          <t>Rob. t-test</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Rob. t-test</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Rob. p-value</t>
         </is>
@@ -4124,18 +4766,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.04921651797800505</v>
+        <v>-0.04943586527588707</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.002499684716190127</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00241949275948247</v>
+        <v>-19.77684023736975</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.34166780831056</v>
-      </c>
-      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4146,18 +4785,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2045143308115769</v>
+        <v>-0.3265665892161181</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.01639003184334455</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01681810672572272</v>
+        <v>-19.92470742811437</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.16036585728043</v>
-      </c>
-      <c r="F3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4168,19 +4804,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02236527166300042</v>
+        <v>-0.04529052221981093</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.0279607121551778</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03127390009406585</v>
+        <v>-1.619791440520372</v>
       </c>
       <c r="E4" t="n">
-        <v>0.715141750652461</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.4745214578186752</v>
+        <v>0.1052770855876948</v>
       </c>
     </row>
     <row r="5">
@@ -4190,129 +4823,118 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.009558685371985379</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.1781260872291382</v>
       </c>
       <c r="D5" t="n">
-        <v>2.352518771526862</v>
+        <v>0.05366246752890978</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+        <v>0.9572040862656355</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>b_shop2</t>
+          <t>b_size</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.714183683516364</v>
+        <v>0.7078311475872499</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.02040513575868483</v>
       </c>
       <c r="D6" t="n">
-        <v>2.084668517764386</v>
+        <v>34.68887225050599</v>
       </c>
       <c r="E6" t="n">
-        <v>1.301973748050397</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1929253598955407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>b_size</t>
+          <t>Number of estimated parameters</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6078988471200174</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.02427043966370927</v>
-      </c>
-      <c r="E7" t="n">
-        <v>25.04688236154976</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Number of estimated parameters</t>
+          <t>Sample size</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Number of free parameters</t>
+          <t>Excluded observations</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Sample size</t>
+          <t>Init log likelihood</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>-19917.55426610807</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Excluded observations</t>
+          <t>Final log likelihood</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>-11727.9289201346</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Init log likelihood</t>
+          <t>Likelihood ratio test for the init. model</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-19146.6168722216</v>
+        <v>16379.25069194693</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -4321,147 +4943,104 @@
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Final log likelihood</t>
+          <t>Rho-square for the init. model</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-11649.40612985686</v>
+        <v>0.4111762536984285</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>.7g</t>
+          <t>.3g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Likelihood ratio test for the init. model</t>
+          <t>Rho-square-bar for the init. model</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14994.42148472949</v>
+        <v>0.4109252188608578</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>.7g</t>
+          <t>.3g</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Rho-square for the init. model</t>
+          <t>Akaike Information Criterion</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3915684317704131</v>
+        <v>23465.8578402692</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>.3g</t>
+          <t>.7g</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Rho-square-bar for the init. model</t>
+          <t>Bayesian Information Criterion</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3912550604818955</v>
+        <v>23495.88967810745</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>.3g</t>
+          <t>.7g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Akaike Information Criterion</t>
+          <t>Final gradient norm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>23310.81225971371</v>
+        <v>0.001345796549848235</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>.7g</t>
+          <t>.4E</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Bayesian Information Criterion</t>
+          <t>Nbr of threads</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23346.85046511961</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>.7g</t>
-        </is>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Final gradient norm</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2.484764616040953</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>.4E</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Nbr of threads</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>32</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4474,7 +5053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4511,13 +5090,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02843271051657928</v>
+        <v>-0.0682866779591003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001625591555414911</v>
+        <v>0.007910709633737835</v>
       </c>
       <c r="D2" t="n">
-        <v>-17.49068541963617</v>
+        <v>-8.632181071072209</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4530,13 +5109,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4326717513070564</v>
+        <v>-0.5394101565584662</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01506948116810554</v>
+        <v>0.03146788279312941</v>
       </c>
       <c r="D3" t="n">
-        <v>-28.71178818171944</v>
+        <v>-17.14160943411926</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4545,87 +5124,81 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>b_leisure1</t>
+          <t>b_pop</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.642922288959364</v>
+        <v>0.3089416219921297</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3712496641674281</v>
+        <v>0.09834556268592555</v>
       </c>
       <c r="D4" t="n">
-        <v>4.425383906121006</v>
+        <v>3.141388523839754</v>
       </c>
       <c r="E4" t="n">
-        <v>9.627092001585069e-06</v>
+        <v>0.001681488068443038</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>b_leisure2</t>
+          <t>b_shop1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.081075960198639</v>
+        <v>2.088812654052021</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3779235349213176</v>
+        <v>0.5611216973580683</v>
       </c>
       <c r="D5" t="n">
-        <v>2.860567972893552</v>
+        <v>3.722566181074064</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004228828890673775</v>
+        <v>0.0001972081946779447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>b_pop</t>
+          <t>b_size</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3076589592423041</v>
+        <v>0.9666332890036852</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03823561619415349</v>
+        <v>0.0559871804160451</v>
       </c>
       <c r="D6" t="n">
-        <v>8.046397308730894</v>
+        <v>17.26526111550105</v>
       </c>
       <c r="E6" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>b_size</t>
+          <t>Number of estimated parameters</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9098372659287616</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.02697162538545468</v>
-      </c>
-      <c r="D7" t="n">
-        <v>33.73312705208417</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Number of estimated parameters</t>
+          <t>Sample size</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -4634,11 +5207,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Sample size</t>
+          <t>Excluded observations</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -4647,24 +5220,28 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Excluded observations</t>
+          <t>Init log likelihood</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>-2310.805716252541</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>.7g</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Init log likelihood</t>
+          <t>Final log likelihood</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-10940.91475380965</v>
+        <v>-922.0800524020262</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -4677,11 +5254,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Final log likelihood</t>
+          <t>Likelihood ratio test for the init. model</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-6712.809679541367</v>
+        <v>2777.45132770103</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -4694,15 +5271,15 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Likelihood ratio test for the init. model</t>
+          <t>Rho-square for the init. model</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8456.210148536577</v>
+        <v>0.6009703256674588</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>.7g</t>
+          <t>.3g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -4711,11 +5288,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Rho-square for the init. model</t>
+          <t>Rho-square-bar for the init. model</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3864489550835821</v>
+        <v>0.5988065782070671</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -4728,15 +5305,15 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Rho-square-bar for the init. model</t>
+          <t>Akaike Information Criterion</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3859005548688824</v>
+        <v>1854.160104804052</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>.3g</t>
+          <t>.7g</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -4745,11 +5322,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Akaike Information Criterion</t>
+          <t>Bayesian Information Criterion</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13437.61935908273</v>
+        <v>1870.447581664191</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -4762,15 +5339,15 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Bayesian Information Criterion</t>
+          <t>Final gradient norm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13466.29206846885</v>
+        <v>8.533138969988883e-05</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>.7g</t>
+          <t>.4E</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -4779,32 +5356,15 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Final gradient norm</t>
+          <t>Nbr of threads</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02036953281972687</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>.4E</t>
-        </is>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Nbr of threads</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>32</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
